--- a/annotador-core/src/main/resources/rules/FINAL-HOURGLASS.xlsx
+++ b/annotador-core/src/main/resources/rules/FINAL-HOURGLASS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1399">
   <si>
     <t>Pasado un tiempo.</t>
   </si>
@@ -1871,9 +1871,6 @@
     <t>El XI AC</t>
   </si>
   <si>
-    <t>El siglo X después de Cristo</t>
-  </si>
-  <si>
     <t>En el siglo 20.</t>
   </si>
   <si>
@@ -1901,21 +1898,9 @@
     <t>Ocurrió este mismo año 2000.</t>
   </si>
   <si>
-    <t>Se medirán en el campo próximo sábado.</t>
-  </si>
-  <si>
-    <t>Este siglo XXI.</t>
-  </si>
-  <si>
     <t>Hace dos lustros.</t>
   </si>
   <si>
-    <t>Miles de inventos llegarán a lo largo del siglo 21.</t>
-  </si>
-  <si>
-    <t>Fue condenado ese mismo día del señor.</t>
-  </si>
-  <si>
     <t>Ya hace una semana.</t>
   </si>
   <si>
@@ -1991,9 +1976,6 @@
     <t>Hasta finales del pasado mayo .</t>
   </si>
   <si>
-    <t>Cerraron por la noche.</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -2192,9 +2174,6 @@
     <t>Durante una hora y 15 minutos.</t>
   </si>
   <si>
-    <t>Quedamos a las tres de la tarde.</t>
-  </si>
-  <si>
     <t>Las tres dijeron lo mismo.</t>
   </si>
   <si>
@@ -2259,9 +2238,6 @@
   </si>
   <si>
     <t>De 12:15 a 3:50.</t>
-  </si>
-  <si>
-    <t>A las 12 de la tarde.</t>
   </si>
   <si>
     <t>Las 5 por la tarde.</t>
@@ -2658,6 +2634,9 @@
     <t>A ver si consigo terminar esta sección del capítulo antes de irme a casa hoy, que llevo una hora con la misma página.</t>
   </si>
   <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
     <t>¿Cuánto crees que te llevaría cambiar los ejemplos de esa sección del artículo?</t>
   </si>
   <si>
@@ -2760,6 +2739,9 @@
     <t>phrase</t>
   </si>
   <si>
+    <t>In illo tempore</t>
+  </si>
+  <si>
     <t>LatinAmerica</t>
   </si>
   <si>
@@ -4258,6 +4240,459 @@
   </si>
   <si>
     <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P1M"&gt;Algún mes&lt;/TIMEX3&gt;, aquel bonito; &lt;TIMEX3 tid="t2" type="DURATION" value="P1M"&gt;largo aunque hermoso mes&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Quedaron a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T13:00"&gt;la 1 pm&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Quedaron a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T13:00"&gt;la 1pm&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Quedaron a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:00"&gt;las 12&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Ambiguo, puede ser hora</t>
+  </si>
+  <si>
+    <t>A &lt;TIMEX3 tid="t1" type="DURATION" value="PT3H"&gt;las 3 horas&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>De &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:10"&gt;12:15&lt;/TIMEX3&gt; a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-21T3:50"&gt;3:50&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PT12H"&gt;Las 12 horas&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Las &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:00"&gt;12h&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>A &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:50"&gt;las 12h50&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>A &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T19:00"&gt;las 7 de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>A las 7 de la tarde.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T17:00"&gt;Las 5 por la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Las 2 de aquella nublada y bella tarde.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T14:30"&gt;Las 2 y media de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:00"&gt;Las 12 del mediodía&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T14:00"&gt;Las 2 de aquella nublada y bella tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T3:00"&gt;las 3&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Quedamos a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T3:00"&gt;las 3&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>puede ser de la tarde</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T15:00"&gt;las tres de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Quedamos a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T16:00"&gt;las cuatro de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Quedamos a las cuatro de la tarde.</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T15:00"&gt;las quince de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T14:20"&gt;Las 2:20 de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T2:20"&gt;Las 2.20&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T2:20"&gt;Las 2:20&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T13:55"&gt;Las dos menos cinco de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T14:00"&gt;las dos de la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T10:00"&gt;las diez&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T1:55"&gt;Las 2 menos 5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T1:55"&gt;Las 2 menos cinco&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T1:55"&gt;Las dos menos 5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>De &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:00"&gt;12&lt;/TIMEX3&gt; a &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20T15:00"&gt;3&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Entre &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T12:00"&gt;las 12&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20T15:00"&gt;las 3&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Se fueron a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T10:00"&gt;las 10&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>A &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T10:00"&gt;las 10&lt;/TIMEX3&gt; se fueron.</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T10:00"&gt;las 10&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PXM"&gt;Varios meses&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DURATION" value="PXM"&gt;algunos meses&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t3" type="DURATION" value="PXM"&gt;los meses&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t4" type="DURATION" value="PXM"&gt;aquellos maravillosos meses&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t5" type="DURATION" value="P2M"&gt;un par de meses&lt;/TIMEX3&gt;, durante &lt;TIMEX3 tid="t6" type="DURATION" value="P3D"&gt;tres días&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PXWE"&gt;Varios fines de semana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P1Y"&gt;Ese año&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P1Y"&gt;Todo el año&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PTXH"&gt;Las próximas horas&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="2020"&gt;el año siguiente&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-11"&gt;El mes pasado&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="2018"&gt;el pasado año&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>A &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T22:50"&gt;las 22:50&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="PXD"&gt;Unos días&lt;/TIMEX3&gt; sí y &lt;TIMEX3 tid="t2" type="DURATION" value="PXD"&gt;otros&lt;/TIMEX3&gt; no.</t>
+  </si>
+  <si>
+    <t>Correference</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-08-02"&gt;Del 2&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t2" type="DATE" value="2019-08-15"&gt;al 15 de agosto&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Durará de &lt;TIMEX3 tid="t1" type="DURATION" value="P3D"&gt;3&lt;/TIMEX3&gt; a &lt;TIMEX3 tid="t2" type="DURATION" value="P5D"&gt;cinco días&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>De &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T1:00"&gt;una&lt;/TIMEX3&gt; a &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20T2:00"&gt;dos&lt;/TIMEX3&gt; y de &lt;TIMEX3 tid="t3" type="TIME" value="2019-12-20T5:00"&gt;cinco&lt;/TIMEX3&gt; a &lt;TIMEX3 tid="t4" type="TIME" value="2019-12-20T7:00"&gt;siete&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Participan &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-03"&gt;del día 3&lt;/TIMEX3&gt; al &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-05"&gt;5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2020-05"&gt;Mayo&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="DATE" value="2020-06"&gt;Junio de 2020&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="PRESENT_REF"&gt;A día de hoy&lt;/TIMEX3&gt; es mejor no hacerlo.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2020-01-01"&gt;El día uno del próximo mes&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Esto fue &lt;TIMEX3 tid="t1" type="DATE" value="2020-05"&gt;el próximo mayo&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="PAST_REF"&gt;hace tiempo&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TIMEX3 tid="t1" type="DURATION" value="PT2.5H"&gt;Hace 2 horas y media&lt;/TIMEX3&gt;. </t>
+  </si>
+  <si>
+    <t>Nos vimos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-19"&gt;el pasado día 21 de diciembre&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P1Y2M"&gt;Hace un año y dos meses&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>En &lt;TIMEX3 tid="t1" type="DURATION" value="P2Y"&gt;un bienio&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-H1"&gt;El semestre pasado&lt;/TIMEX3&gt; saqué peores notas.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P2T"&gt;Hace dos cuatrimestres&lt;/TIMEX3&gt; de eso.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-18"&gt;Antes de ayer&lt;/TIMEX3&gt; fue mejor.</t>
+  </si>
+  <si>
+    <t>Nos vemos dentro de &lt;TIMEX3 tid="t1" type="DURATION" value="PT4M"&gt;4 minutos&lt;/TIMEX3&gt;, pero &lt;TIMEX3 tid="t2" type="DURATION" value="P7Y2M3D"&gt;7 años, 2 meses y tres días&lt;/TIMEX3&gt; antes.</t>
+  </si>
+  <si>
+    <t>En &lt;TIMEX3 tid="t1" type="DURATION" value="P2Y6M10D"&gt;10 días, 2 años y seis meses&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Se medirán en el campo el próximo sábado.</t>
+  </si>
+  <si>
+    <t>Se medirán en el campo &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-19"&gt;el próximo sábado&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Nos vimos &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-19"&gt;el pasado día 19&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DURATION" value="P10Y"&gt;Hace dos lustros&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Ha sido condenado este mismo día del señor.</t>
+  </si>
+  <si>
+    <t>Ha sido condenado &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-20"&gt;este mismo día del señor&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-WE51"&gt;El próximo finde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Era &lt;TIMEX3 tid="t1" type="DATE" value="2019-04-25"&gt;el 25 de abril&lt;/TIMEX3&gt; y, pero se postpuso a &lt;TIMEX3 tid="t2" type="DURATION" value="P1D"&gt;un día&lt;/TIMEX3&gt; después.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-06-02"&gt;El pasado 2 de junio&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Y aquí, mientras esperamos el derbi &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-23"&gt;del Lunes&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-19"&gt;Ayer&lt;/TIMEX3&gt; fuimos al parque, &lt;TIMEX3 tid="t2" type="DATE" value="18"&gt;hace dos siglos&lt;/TIMEX3&gt; lo vimos.</t>
+  </si>
+  <si>
+    <t>Son &lt;TIMEX3 tid="t1" type="DURATION" value="P2Y3MT2M"&gt;dos años y tres meses y dos minutos&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P1W"&gt;Todas las semanas&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Hasta &lt;TIMEX3 tid="t1" type="DATE" value="2019-05"&gt;finales del pasado mayo&lt;/TIMEX3&gt; .</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P2M"&gt;Cada dos meses&lt;/TIMEX3&gt;. &lt;TIMEX3 tid="t2" type="SET" value="P1M"&gt;Cada mes&lt;/TIMEX3&gt;. Lo veían &lt;TIMEX3 tid="t3" type="DURATION" value="P2M" freq="2D"&gt;dos días cada dos meses&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Iban al cine &lt;TIMEX3 tid="t1" type="SET" value="P1W" freq="1X"&gt;una vez cada semana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Hay que comer pescado &lt;TIMEX3 tid="t1" type="DATE" value="P1W" freq="3X"&gt;tres veces a la semana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Recomiendan lavarse los dientes &lt;TIMEX3 tid="t1" type="SET" value="P1D" freq="3X"&gt;tres veces al día&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Le visitaba &lt;TIMEX3 tid="t1" type="SET" value="P1W" freq="3X"&gt;tres veces cada semana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Hablan &lt;TIMEX3 tid="t1" type="SET" value="PW" freq="2X"&gt;dos veces a la semana&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="SET" value="P1M" freq="3X"&gt;3 veces al mes&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Voy a correr &lt;TIMEX3 tid="t1" type="SET" value="P1W" freq="1D"&gt;un día cada semana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P2M" freq="3D"&gt;Tres días cada dos meses&lt;/TIMEX3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P2W" value="1D"&gt;Un día cada dos semanas&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="XXXX-WXX-1"&gt;Cada lunes&lt;/TIMEX3&gt; a &lt;TIMEX3 tid="t2" type="TIME" value="T10:00"&gt;las 10&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Se derrochan litros de agua &lt;TIMEX3 tid="t1" type="SET" value="P1D"&gt;cada día&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P2M"&gt;Cada dos meses&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P1D"&gt;Cada día&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="SET" value="P3W" freq="1X"&gt;Una vez cada tres semanas&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t2" type="SET" value="P23Y" freq="2X"&gt;Dos veces cada 23 años&lt;/TIMEX3&gt;</t>
+  </si>
+  <si>
+    <t>Miles de inventos llegaron a lo largo &lt;TIMEX3 tid="t1" type="DATE" value="18"&gt;del siglo 19&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Miles de inventos llegaron a lo largo del siglo 18.</t>
+  </si>
+  <si>
+    <t>Este siglo XX.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="19"&gt;Este siglo XX&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="00"&gt;El siglo primero&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="BCE01"&gt;El siglo segundo AC&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="09"&gt;El siglo X después de Cristo&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>El siglo X después de Cristo.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="BCE19"&gt;El 20 antes de cristo&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="0"&gt;El milenio I&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>El XI AC.</t>
+  </si>
+  <si>
+    <t>En &lt;TIMEX3 tid="t1" type="DATE" value="19"&gt;el siglo 20&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="19"&gt;El XX d.C.&lt;/TIMEX3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="BCE10"&gt;El XI AC&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-04-02"&gt;El 2&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="DATE" value="2019-04-03"&gt;el 3 de abril&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-03-01"&gt;Los días 1&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="2019-03-02"&gt;2&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t3" type="DATE" value="2019-03-03"&gt;3&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t4" type="DATE" value="2019-03-04"&gt;4 de marzo&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-01"&gt;El día 1&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="DATE" value="2019-03-02"&gt;el 2 de marzo&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Participan &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-03"&gt;del día 3&lt;/TIMEX3&gt; y el &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-05"&gt;5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-04-01"&gt;Los días 1&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t2" type="DATE" value="2019-04-02"&gt;2&lt;/TIMEX3&gt;, &lt;TIMEX3 tid="t3" type="DATE" value="2019-04-03"&gt;3&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t4" type="DATE" value="2019-04-05"&gt;5 de abril&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>El día 1 y el 2.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-01"&gt;El día 1&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-02"&gt;2&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TAF"&gt;Este mismo día por la tarde&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-20"&gt;Hoy&lt;/TIMEX3&gt; cierran por &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20TNI"&gt;la noche&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Hoy cierran por la noche.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-Q1"&gt;El primer trimestre del año&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me contestó al correo en &lt;TIMEX3 tid="t1" type="DURATION" value="PXS"&gt;cero coma&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me contestó al correo en &lt;TIMEX3 tid="t1" type="DURATION" value="PXS"&gt;un pliqui&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me contestó al correo en &lt;TIMEX3 tid="t1" type="DURATION" value="PXS"&gt;un pispás&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me contestó al correo en &lt;TIMEX3 tid="t1" type="DURATION" value="PXS"&gt;un momentín&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me contestó al correo en &lt;TIMEX3 tid="t1" type="DURATION" value="PXS"&gt;un abrir y cerrar de ojos&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandé el borrador a &lt;TIMEX3 tid="t1" type="DATE" value="2019-SP"&gt;principios de la primavera&lt;/TIMEX3&gt;. Debería haber depositado la tesis a &lt;TIMEX3 tid="t2" type="DATE" value="2019-SU"&gt;finales del verano&lt;/TIMEX3&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llevo &lt;TIMEX3 tid="t1" type="DURATION" value="PT2H"&gt;dos horas&lt;/TIMEX3&gt; con este formulario. Aún no he empezado a trabajar en el articulo que tengo que preparar para &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-23"&gt;el lunes&lt;/TIMEX3&gt;. El plazo de vencimiento está a la vuelta de la esquina. </t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;Hacía tiempo&lt;/TIMEX3&gt; que Google no me devolvía una traducción tan buena.</t>
+  </si>
+  <si>
+    <t>Esto se hace en &lt;TIMEX3 tid="t1" type="DURATION" value="PT2AF"&gt;dos tardes.</t>
+  </si>
+  <si>
+    <t>Tenemos la teleconferencia &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-23TMO"&gt;el lunes a media mañana&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>A este ritmo estoy describiendo mi agenda para &lt;TIMEX3 tid="t1" type="DURATION" value="PXD"&gt;los próximos días&lt;/TIMEX3&gt; en este corpus.</t>
+  </si>
+  <si>
+    <t>Dedica &lt;TIMEX3 tid="t1" type="DURATION" value="PXH"&gt;lo que queda&lt;/TIMEX3&gt; de &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-20"&gt;día&lt;/TIMEX3&gt; a otra tarea, si ves que esta no te está cundiendo mucho &lt;TIMEX3 tid="t3" type="DATE" value="2019-12-20"&gt;hoy&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me centro en trabajar en la tesis &lt;TIMEX3 tid="t1" type="DATE" value="2019-12-20"&gt;hoy&lt;/TIMEX3&gt; y &lt;TIMEX3 tid="t2" type="DATE" value="2019-12-21"&gt;mañana&lt;/TIMEX3&gt;, retomaré el artículo para el congreso de &lt;TIMEX3 tid="t3" type="DATE" value="2020-09"&gt;septiembre&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t4" type="DATE" value="2019-12-21"&gt;el sábado&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Tenemos un plazo de vencimiento interno a mediados de &lt;TIMEX3 tid="t1" type="DATE" value="2019-W52"&gt;la semana que viene&lt;/TIMEX3&gt;, el plazo oficial acaba &lt;TIMEX3 tid="t2" type="DATE" value="2020-06-10"&gt;el 10 de junio&lt;/TIMEX3&gt;, pero queremos dejar &lt;TIMEX3 tid="t5" type="DURATION" value="PXD"&gt;unos días&lt;/TIMEX3&gt; de margen para revisar todo el contenido.</t>
+  </si>
+  <si>
+    <t>Ese contenido lo podemos dejar &lt;TIMEX3 tid="t1" type="DATE" value="PRESENT_REF"&gt;ahora&lt;/TIMEX3&gt; para trabajo &lt;TIMEX3 tid="t2" type="DATE" value="FUTURE_REF"&gt;futuro&lt;/TIMEX3&gt;</t>
+  </si>
+  <si>
+    <t>LLego en &lt;TIMEX3 tid="t1" type="DURATION" value="PTXM"&gt;nada&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Esto se hace en &lt;TIMEX3 tid="t1" type="DURATION" value="PTXH"&gt;un pim pam&lt;/TIMEX3&gt; y ya estaría listo.</t>
+  </si>
+  <si>
+    <t>Debe estar hecho para ayer.</t>
+  </si>
+  <si>
+    <t>Tardé &lt;TIMEX3 tid="t1" type="DURATION" value="PTXH"&gt;la intemerata&lt;/TIMEX3&gt; en acabarlo.</t>
+  </si>
+  <si>
+    <t>Él tiene &lt;TIMEX3 tid="t1" type="DURATION" value="P25Y"&gt;25 primaveras&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Pedro cumplió &lt;TIMEX3 tid="t1" type="DURATION" value="P37Y"&gt;37 castañas&lt;/TIMEX3&gt; &lt;TIMEX3 tid="t2" type="DATE" value="2019-11"&gt;el mes pasado&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="2019-12-20"&gt;Hoy&lt;/TIMEX3&gt; cumplo &lt;TIMEX3 tid="t2" type="DURATION" value="P72Y"&gt;72 abriles&lt;/TIMEX3&gt; .</t>
+  </si>
+  <si>
+    <t>Se hizo &lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;illa tempora&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Me leí el informe en &lt;TIMEX3 tid="t1" type="DURATION" value="PTXM"&gt;un tris&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Te quedan &lt;TIMEX3 tid="t1" type="DURATION" value="PXD"&gt;tres telediarios&lt;/TIMEX3&gt; para las vacaciones.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="DATE" value="PAST_REF"&gt;In illo tempore&lt;/TIMEX3&gt;</t>
+  </si>
+  <si>
+    <t>Es &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T4:45"&gt;cuarto para las 5&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T10:55"&gt;Cinco para las 11&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Ya, la idea es montar una excursión de &lt;TIMEX3 tid="t1" type="DURATION" value="P1WE"&gt;fin de semana&lt;/TIMEX3&gt;</t>
+  </si>
+  <si>
+    <t>Fecha y Hora: &lt;TIMEX3 tid="t1" type="TIME" value="2019-06-07T19:15"&gt;7 junio, 2019 19:15&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Bueno pues a &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20TXX:45"&gt;y 45&lt;/TIMEX3&gt;.</t>
+  </si>
+  <si>
+    <t>Era a las &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T19:00"&gt;19&lt;/TIMEX3&gt; o a &lt;TIMEX3 tid="t2" type="TIME" value="2019-12-20T19:15"&gt;y 15&lt;/TIMEX3&gt;?</t>
+  </si>
+  <si>
+    <t>Ok, mandadme please un whatsapp cuando salgáis, que yo iré a la zona desde aquí en coche. Calculo &lt;TIMEX3 tid="t1" type="TIME" value="2019-12-20T20:30"&gt;~20:30&lt;/TIMEX3&gt;, lo vuestro dura &lt;TIMEX3 tid="t2" type="DURATION" value="PT1H"&gt;1h&lt;/TIMEX3&gt;, no?</t>
   </si>
 </sst>
 </file>
@@ -4311,7 +4746,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4321,12 +4756,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4358,7 +4787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4377,8 +4806,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4661,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:XFD131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F348" sqref="F348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4671,7 +5098,7 @@
     <col min="2" max="2" width="52.7265625" customWidth="1"/>
     <col min="3" max="3" width="31.36328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.26953125" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4683,19 +5110,19 @@
         <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D1" t="s">
         <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F1" t="s">
         <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4706,13 +5133,13 @@
         <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F2" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4723,10 +5150,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D3" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -4740,16 +5167,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D4" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F4" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G4" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4760,16 +5187,16 @@
         <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D5" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F5" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="G5" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4780,13 +5207,13 @@
         <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D6" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F6" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4797,13 +5224,13 @@
         <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D7" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F7" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4814,13 +5241,13 @@
         <v>581</v>
       </c>
       <c r="C8" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D8" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F8" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4831,13 +5258,13 @@
         <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D9" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F9" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4848,13 +5275,13 @@
         <v>583</v>
       </c>
       <c r="C10" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D10" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F10" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4865,13 +5292,13 @@
         <v>584</v>
       </c>
       <c r="C11" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D11" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F11" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4882,13 +5309,13 @@
         <v>585</v>
       </c>
       <c r="C12" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D12" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F12" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4899,13 +5326,13 @@
         <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D13" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F13" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4916,13 +5343,13 @@
         <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D14" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F14" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -4933,13 +5360,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D15" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F15" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4950,13 +5377,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D16" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F16" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4967,13 +5394,13 @@
         <v>595</v>
       </c>
       <c r="C17" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D17" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F17" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -4984,13 +5411,13 @@
         <v>596</v>
       </c>
       <c r="C18" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D18" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F18" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -4998,16 +5425,16 @@
         <v>311</v>
       </c>
       <c r="B19" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C19" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D19" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F19" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -5015,16 +5442,16 @@
         <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C20" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D20" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F20" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -5032,16 +5459,16 @@
         <v>313</v>
       </c>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D21" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F21" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -5052,13 +5479,13 @@
         <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D22" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F22" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -5066,16 +5493,16 @@
         <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C23" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D23" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F23" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -5083,16 +5510,16 @@
         <v>316</v>
       </c>
       <c r="B24" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C24" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D24" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F24" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -5103,13 +5530,13 @@
         <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D25" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F25" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -5117,16 +5544,16 @@
         <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C26" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D26" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F26" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -5134,16 +5561,16 @@
         <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C27" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D27" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F27" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -5151,16 +5578,16 @@
         <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C28" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D28" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F28" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -5168,16 +5595,16 @@
         <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C29" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D29" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F29" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -5185,16 +5612,16 @@
         <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C30" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D30" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F30" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -5205,13 +5632,13 @@
         <v>290</v>
       </c>
       <c r="C31" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D31" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F31" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -5222,13 +5649,13 @@
         <v>597</v>
       </c>
       <c r="C32" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D32" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="F32" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -5239,13 +5666,13 @@
         <v>598</v>
       </c>
       <c r="C33" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D33" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="F33" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -5253,16 +5680,16 @@
         <v>326</v>
       </c>
       <c r="B34" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C34" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D34" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="F34" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -5270,16 +5697,16 @@
         <v>327</v>
       </c>
       <c r="B35" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C35" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D35" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F35" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -5287,16 +5714,16 @@
         <v>328</v>
       </c>
       <c r="B36" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C36" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D36" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F36" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -5304,16 +5731,16 @@
         <v>329</v>
       </c>
       <c r="B37" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C37" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D37" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F37" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -5321,16 +5748,16 @@
         <v>330</v>
       </c>
       <c r="B38" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C38" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D38" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F38" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -5341,13 +5768,13 @@
         <v>292</v>
       </c>
       <c r="C39" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D39" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F39" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -5358,13 +5785,13 @@
         <v>586</v>
       </c>
       <c r="C40" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D40" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F40" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -5375,13 +5802,13 @@
         <v>599</v>
       </c>
       <c r="C41" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D41" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F41" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -5392,13 +5819,13 @@
         <v>600</v>
       </c>
       <c r="C42" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D42" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F42" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -5409,13 +5836,13 @@
         <v>601</v>
       </c>
       <c r="C43" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D43" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F43" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -5426,13 +5853,13 @@
         <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D44" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F44" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -5443,13 +5870,13 @@
         <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D45" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F45" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -5460,14 +5887,14 @@
         <v>605</v>
       </c>
       <c r="C46" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D46" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -5478,14 +5905,14 @@
         <v>606</v>
       </c>
       <c r="C47" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D47" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -5496,14 +5923,14 @@
         <v>604</v>
       </c>
       <c r="C48" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D48" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -5511,17 +5938,17 @@
         <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C49" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D49" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -5532,14 +5959,14 @@
         <v>603</v>
       </c>
       <c r="C50" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D50" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -5547,16 +5974,16 @@
         <v>343</v>
       </c>
       <c r="B51" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C51" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D51" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F51" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -5564,16 +5991,16 @@
         <v>344</v>
       </c>
       <c r="B52" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C52" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D52" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F52" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -5581,17 +6008,17 @@
         <v>345</v>
       </c>
       <c r="B53" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C53" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D53" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -5599,17 +6026,17 @@
         <v>346</v>
       </c>
       <c r="B54" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C54" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D54" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -5620,14 +6047,14 @@
         <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D55" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -5638,14 +6065,14 @@
         <v>282</v>
       </c>
       <c r="C56" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D56" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -5653,16 +6080,16 @@
         <v>349</v>
       </c>
       <c r="B57" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C57" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D57" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F57" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -5670,16 +6097,16 @@
         <v>350</v>
       </c>
       <c r="B58" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C58" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D58" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F58" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -5687,16 +6114,16 @@
         <v>351</v>
       </c>
       <c r="B59" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C59" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D59" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F59" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -5707,13 +6134,13 @@
         <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D60" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F60" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -5724,13 +6151,13 @@
         <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D61" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F61" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -5738,16 +6165,16 @@
         <v>354</v>
       </c>
       <c r="B62" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C62" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D62" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F62" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -5755,16 +6182,16 @@
         <v>355</v>
       </c>
       <c r="B63" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C63" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D63" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F63" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -5772,16 +6199,16 @@
         <v>356</v>
       </c>
       <c r="B64" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C64" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D64" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F64" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -5789,16 +6216,16 @@
         <v>357</v>
       </c>
       <c r="B65" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C65" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D65" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F65" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -5806,16 +6233,16 @@
         <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C66" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D66" t="s">
         <v>97</v>
       </c>
       <c r="F66" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -5823,16 +6250,16 @@
         <v>359</v>
       </c>
       <c r="B67" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C67" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D67" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F67" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -5840,16 +6267,16 @@
         <v>360</v>
       </c>
       <c r="B68" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C68" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D68" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F68" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -5857,16 +6284,16 @@
         <v>361</v>
       </c>
       <c r="B69" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C69" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D69" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F69" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -5874,16 +6301,16 @@
         <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C70" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D70" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F70" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -5891,16 +6318,16 @@
         <v>363</v>
       </c>
       <c r="B71" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C71" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D71" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F71" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -5908,16 +6335,16 @@
         <v>364</v>
       </c>
       <c r="B72" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C72" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D72" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F72" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -5925,16 +6352,16 @@
         <v>365</v>
       </c>
       <c r="B73" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C73" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D73" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F73" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -5942,16 +6369,16 @@
         <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C74" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D74" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F74" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -5959,16 +6386,16 @@
         <v>367</v>
       </c>
       <c r="B75" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C75" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D75" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F75" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -5976,16 +6403,16 @@
         <v>368</v>
       </c>
       <c r="B76" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C76" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D76" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F76" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -5993,16 +6420,16 @@
         <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C77" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D77" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F77" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -6013,13 +6440,13 @@
         <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D78" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F78" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -6027,16 +6454,16 @@
         <v>371</v>
       </c>
       <c r="B79" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C79" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D79" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F79" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -6047,13 +6474,13 @@
         <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D80" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F80" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -6061,16 +6488,16 @@
         <v>373</v>
       </c>
       <c r="B81" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C81" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D81" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F81" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -6078,16 +6505,16 @@
         <v>374</v>
       </c>
       <c r="B82" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C82" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D82" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F82" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -6095,16 +6522,16 @@
         <v>375</v>
       </c>
       <c r="B83" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C83" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D83" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F83" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -6115,13 +6542,13 @@
         <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D84" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F84" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -6132,13 +6559,13 @@
         <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D85" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F85" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -6149,13 +6576,13 @@
         <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D86" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F86" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -6166,13 +6593,13 @@
         <v>602</v>
       </c>
       <c r="C87" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D87" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F87" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -6183,13 +6610,13 @@
         <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D88" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F88" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -6200,13 +6627,13 @@
         <v>607</v>
       </c>
       <c r="C89" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D89" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F89" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -6217,13 +6644,13 @@
         <v>608</v>
       </c>
       <c r="C90" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D90" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F90" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -6234,13 +6661,13 @@
         <v>609</v>
       </c>
       <c r="C91" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D91" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F91" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -6251,10 +6678,10 @@
         <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D92" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F92" t="s">
         <v>265</v>
@@ -6268,10 +6695,10 @@
         <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D93" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F93" t="s">
         <v>266</v>
@@ -6285,13 +6712,13 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D94" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F94" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -6302,13 +6729,13 @@
         <v>279</v>
       </c>
       <c r="C95" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D95" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F95" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -6319,13 +6746,13 @@
         <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D96" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F96" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -6333,16 +6760,16 @@
         <v>389</v>
       </c>
       <c r="B97" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C97" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D97" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F97" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -6350,16 +6777,16 @@
         <v>390</v>
       </c>
       <c r="B98" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C98" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D98" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F98" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -6367,16 +6794,16 @@
         <v>391</v>
       </c>
       <c r="B99" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C99" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D99" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F99" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -6384,16 +6811,16 @@
         <v>392</v>
       </c>
       <c r="B100" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C100" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D100" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F100" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -6401,16 +6828,16 @@
         <v>393</v>
       </c>
       <c r="B101" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C101" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D101" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F101" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -6418,16 +6845,16 @@
         <v>394</v>
       </c>
       <c r="B102" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C102" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D102" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F102" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -6438,13 +6865,13 @@
         <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D103" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F103" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -6452,16 +6879,16 @@
         <v>396</v>
       </c>
       <c r="B104" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C104" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D104" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F104" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -6472,13 +6899,13 @@
         <v>277</v>
       </c>
       <c r="C105" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D105" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F105" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -6486,16 +6913,16 @@
         <v>398</v>
       </c>
       <c r="B106" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C106" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D106" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F106" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -6503,16 +6930,16 @@
         <v>399</v>
       </c>
       <c r="B107" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C107" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D107" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F107" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -6520,16 +6947,16 @@
         <v>400</v>
       </c>
       <c r="B108" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C108" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D108" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F108" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -6537,16 +6964,16 @@
         <v>401</v>
       </c>
       <c r="B109" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C109" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D109" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F109" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -6554,16 +6981,16 @@
         <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="C110" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D110" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F110" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -6571,16 +6998,16 @@
         <v>403</v>
       </c>
       <c r="B111" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C111" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D111" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F111" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -6588,16 +7015,16 @@
         <v>404</v>
       </c>
       <c r="B112" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C112" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D112" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F112" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -6605,16 +7032,16 @@
         <v>405</v>
       </c>
       <c r="B113" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="C113" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D113" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F113" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -6622,16 +7049,16 @@
         <v>406</v>
       </c>
       <c r="B114" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C114" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D114" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F114" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -6639,16 +7066,16 @@
         <v>407</v>
       </c>
       <c r="B115" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C115" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D115" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F115" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -6656,16 +7083,16 @@
         <v>408</v>
       </c>
       <c r="B116" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C116" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D116" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F116" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -6673,16 +7100,16 @@
         <v>409</v>
       </c>
       <c r="B117" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C117" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D117" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F117" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -6690,16 +7117,16 @@
         <v>410</v>
       </c>
       <c r="B118" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C118" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D118" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F118" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -6707,16 +7134,16 @@
         <v>411</v>
       </c>
       <c r="B119" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C119" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D119" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F119" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -6724,16 +7151,16 @@
         <v>412</v>
       </c>
       <c r="B120" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C120" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D120" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F120" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -6741,16 +7168,16 @@
         <v>413</v>
       </c>
       <c r="B121" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C121" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D121" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F121" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -6758,16 +7185,16 @@
         <v>414</v>
       </c>
       <c r="B122" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C122" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D122" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F122" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -6775,16 +7202,16 @@
         <v>415</v>
       </c>
       <c r="B123" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C123" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D123" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F123" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -6792,16 +7219,16 @@
         <v>416</v>
       </c>
       <c r="B124" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C124" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D124" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F124" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -6812,13 +7239,13 @@
         <v>278</v>
       </c>
       <c r="C125" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D125" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F125" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -6826,16 +7253,16 @@
         <v>418</v>
       </c>
       <c r="B126" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C126" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D126" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F126" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -6843,16 +7270,16 @@
         <v>419</v>
       </c>
       <c r="B127" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C127" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D127" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F127" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -6863,16 +7290,16 @@
         <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D128" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F128" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>421</v>
       </c>
@@ -6880,16 +7307,16 @@
         <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D129" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F129" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>422</v>
       </c>
@@ -6897,33 +7324,33 @@
         <v>165</v>
       </c>
       <c r="C130" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D130" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="8" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>790</v>
+      </c>
+      <c r="D131" t="s">
+        <v>781</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>424</v>
       </c>
@@ -6931,16 +7358,16 @@
         <v>42</v>
       </c>
       <c r="C132" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D132" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>425</v>
       </c>
@@ -6948,16 +7375,16 @@
         <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D133" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>426</v>
       </c>
@@ -6965,33 +7392,36 @@
         <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D134" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F134" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1252</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B135" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C135" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D135" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F135" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>428</v>
       </c>
@@ -6999,16 +7429,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D136" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>429</v>
       </c>
@@ -7016,17 +7446,20 @@
         <v>47</v>
       </c>
       <c r="C137" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D137" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1254</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>430</v>
       </c>
@@ -7034,387 +7467,393 @@
         <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D138" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B139" t="s">
-        <v>743</v>
+        <v>1258</v>
       </c>
       <c r="C139" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D139" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F139" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B140" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C140" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D140" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F140" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B141" t="s">
-        <v>745</v>
+        <v>1260</v>
       </c>
       <c r="C141" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D141" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F141" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B142" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C142" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D142" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F142" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B143" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C143" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D143" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F143" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B144" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C144" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D144" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F144" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1264</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B145" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C145" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D145" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F145" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1265</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B146" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C146" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D146" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F146" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B147" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C147" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D147" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F147" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B148" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C148" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D148" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F148" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B149" t="s">
-        <v>720</v>
+        <v>1269</v>
       </c>
       <c r="C149" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D149" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F149" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B150" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C150" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D150" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F150" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B151" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C151" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D151" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F151" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B152" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C152" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D152" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F152" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B153" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C153" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D153" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F153" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B154" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C154" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D154" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F154" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B155" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C155" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D155" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F155" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B156" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C156" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D156" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F156" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C157" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D157" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F157" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B158" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C158" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D158" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F158" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B159" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C159" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D159" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F159" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B160" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C160" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D160" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F160" t="s">
-        <v>994</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -7425,13 +7864,13 @@
         <v>35</v>
       </c>
       <c r="C161" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D161" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -7442,13 +7881,13 @@
         <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D162" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -7456,16 +7895,16 @@
         <v>455</v>
       </c>
       <c r="B163" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C163" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D163" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F163" t="s">
-        <v>707</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -7473,16 +7912,16 @@
         <v>456</v>
       </c>
       <c r="B164" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C164" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D164" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F164" t="s">
-        <v>708</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -7490,16 +7929,16 @@
         <v>457</v>
       </c>
       <c r="B165" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C165" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D165" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F165" t="s">
-        <v>709</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -7507,16 +7946,16 @@
         <v>458</v>
       </c>
       <c r="B166" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C166" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D166" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F166" t="s">
-        <v>710</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -7524,16 +7963,16 @@
         <v>459</v>
       </c>
       <c r="B167" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C167" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D167" t="s">
         <v>137</v>
       </c>
       <c r="F167" t="s">
-        <v>995</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -7541,16 +7980,16 @@
         <v>460</v>
       </c>
       <c r="B168" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C168" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D168" t="s">
         <v>137</v>
       </c>
       <c r="F168" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -7558,16 +7997,16 @@
         <v>461</v>
       </c>
       <c r="B169" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C169" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D169" t="s">
         <v>137</v>
       </c>
       <c r="F169" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -7575,16 +8014,16 @@
         <v>462</v>
       </c>
       <c r="B170" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C170" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D170" t="s">
         <v>137</v>
       </c>
       <c r="F170" t="s">
-        <v>998</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -7592,16 +8031,16 @@
         <v>463</v>
       </c>
       <c r="B171" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C171" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D171" t="s">
         <v>137</v>
       </c>
       <c r="F171" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -7609,16 +8048,16 @@
         <v>464</v>
       </c>
       <c r="B172" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C172" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D172" t="s">
         <v>137</v>
       </c>
       <c r="F172" t="s">
-        <v>737</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -7626,16 +8065,16 @@
         <v>465</v>
       </c>
       <c r="B173" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C173" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D173" t="s">
         <v>137</v>
       </c>
       <c r="F173" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -7643,16 +8082,16 @@
         <v>466</v>
       </c>
       <c r="B174" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C174" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D174" t="s">
         <v>137</v>
       </c>
       <c r="F174" t="s">
-        <v>1001</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -7660,16 +8099,16 @@
         <v>467</v>
       </c>
       <c r="B175" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C175" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D175" t="s">
         <v>137</v>
       </c>
       <c r="F175" t="s">
-        <v>1002</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -7677,16 +8116,16 @@
         <v>468</v>
       </c>
       <c r="B176" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C176" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D176" t="s">
         <v>137</v>
       </c>
       <c r="F176" t="s">
-        <v>1003</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -7697,13 +8136,13 @@
         <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D177" t="s">
-        <v>137</v>
+        <v>648</v>
       </c>
       <c r="F177" t="s">
-        <v>148</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -7711,16 +8150,16 @@
         <v>470</v>
       </c>
       <c r="B178" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C178" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D178" t="s">
         <v>137</v>
       </c>
       <c r="F178" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -7728,16 +8167,16 @@
         <v>471</v>
       </c>
       <c r="B179" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C179" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D179" t="s">
-        <v>137</v>
+        <v>1293</v>
       </c>
       <c r="F179" t="s">
-        <v>1005</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -7748,13 +8187,13 @@
         <v>37</v>
       </c>
       <c r="C180" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D180" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F180" t="s">
-        <v>1006</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -7765,13 +8204,13 @@
         <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D181" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -7779,16 +8218,16 @@
         <v>474</v>
       </c>
       <c r="B182" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C182" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D182" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F182" t="s">
-        <v>1007</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -7799,13 +8238,13 @@
         <v>201</v>
       </c>
       <c r="C183" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D183" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F183" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -7813,16 +8252,16 @@
         <v>476</v>
       </c>
       <c r="B184" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C184" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D184" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F184" t="s">
-        <v>1009</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -7833,13 +8272,13 @@
         <v>195</v>
       </c>
       <c r="C185" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D185" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F185" t="s">
-        <v>1010</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -7850,13 +8289,13 @@
         <v>263</v>
       </c>
       <c r="C186" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D186" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F186" t="s">
-        <v>1011</v>
+        <v>263</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -7867,13 +8306,13 @@
         <v>264</v>
       </c>
       <c r="C187" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D187" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F187" t="s">
-        <v>1012</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -7884,10 +8323,10 @@
         <v>267</v>
       </c>
       <c r="C188" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D188" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F188" t="s">
         <v>267</v>
@@ -7898,16 +8337,16 @@
         <v>481</v>
       </c>
       <c r="B189" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C189" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D189" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F189" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -7915,16 +8354,16 @@
         <v>482</v>
       </c>
       <c r="B190" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C190" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D190" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F190" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -7932,16 +8371,16 @@
         <v>483</v>
       </c>
       <c r="B191" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C191" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D191" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F191" t="s">
-        <v>1013</v>
+        <v>673</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -7949,16 +8388,16 @@
         <v>484</v>
       </c>
       <c r="B192" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C192" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D192" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F192" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -7969,10 +8408,10 @@
         <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D193" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F193" t="s">
         <v>268</v>
@@ -7983,16 +8422,16 @@
         <v>486</v>
       </c>
       <c r="B194" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C194" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D194" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F194" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -8000,16 +8439,16 @@
         <v>487</v>
       </c>
       <c r="B195" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C195" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D195" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F195" t="s">
-        <v>1014</v>
+        <v>685</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -8020,10 +8459,10 @@
         <v>213</v>
       </c>
       <c r="C196" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D196" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F196" t="s">
         <v>213</v>
@@ -8034,16 +8473,16 @@
         <v>489</v>
       </c>
       <c r="B197" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C197" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D197" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F197" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -8051,16 +8490,16 @@
         <v>490</v>
       </c>
       <c r="B198" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C198" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D198" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F198" t="s">
-        <v>1015</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -8071,13 +8510,13 @@
         <v>163</v>
       </c>
       <c r="C199" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D199" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F199" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -8085,16 +8524,16 @@
         <v>492</v>
       </c>
       <c r="B200" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C200" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D200" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F200" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -8105,13 +8544,13 @@
         <v>210</v>
       </c>
       <c r="C201" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D201" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F201" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -8119,16 +8558,16 @@
         <v>494</v>
       </c>
       <c r="B202" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C202" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D202" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F202" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -8136,16 +8575,16 @@
         <v>495</v>
       </c>
       <c r="B203" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C203" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D203" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F203" t="s">
-        <v>1019</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -8153,16 +8592,16 @@
         <v>496</v>
       </c>
       <c r="B204" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C204" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D204" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F204" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -8170,16 +8609,16 @@
         <v>497</v>
       </c>
       <c r="B205" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C205" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D205" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F205" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -8190,13 +8629,13 @@
         <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D206" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F206" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -8207,13 +8646,13 @@
         <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D207" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F207" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -8221,16 +8660,16 @@
         <v>500</v>
       </c>
       <c r="B208" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C208" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D208" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F208" t="s">
-        <v>1024</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -8241,13 +8680,13 @@
         <v>230</v>
       </c>
       <c r="C209" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D209" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F209" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -8258,13 +8697,13 @@
         <v>231</v>
       </c>
       <c r="C210" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D210" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F210" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -8275,13 +8714,13 @@
         <v>232</v>
       </c>
       <c r="C211" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D211" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F211" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -8289,16 +8728,16 @@
         <v>504</v>
       </c>
       <c r="B212" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C212" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D212" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F212" t="s">
-        <v>1028</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -8306,16 +8745,16 @@
         <v>505</v>
       </c>
       <c r="B213" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C213" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D213" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F213" t="s">
-        <v>1029</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -8323,16 +8762,16 @@
         <v>506</v>
       </c>
       <c r="B214" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C214" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D214" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F214" t="s">
-        <v>1030</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -8343,13 +8782,13 @@
         <v>259</v>
       </c>
       <c r="C215" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D215" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F215" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -8357,16 +8796,16 @@
         <v>508</v>
       </c>
       <c r="B216" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C216" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D216" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F216" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -8374,16 +8813,16 @@
         <v>509</v>
       </c>
       <c r="B217" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C217" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D217" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F217" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -8394,13 +8833,13 @@
         <v>291</v>
       </c>
       <c r="C218" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D218" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F218" t="s">
-        <v>291</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -8411,13 +8850,13 @@
         <v>251</v>
       </c>
       <c r="C219" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D219" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F219" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -8425,16 +8864,16 @@
         <v>512</v>
       </c>
       <c r="B220" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C220" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D220" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F220" t="s">
-        <v>656</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -8445,13 +8884,13 @@
         <v>587</v>
       </c>
       <c r="C221" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D221" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F221" t="s">
-        <v>587</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -8462,13 +8901,13 @@
         <v>588</v>
       </c>
       <c r="C222" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D222" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F222" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -8479,13 +8918,13 @@
         <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D223" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F223" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -8496,67 +8935,67 @@
         <v>283</v>
       </c>
       <c r="C224" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D224" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F224" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>517</v>
       </c>
       <c r="B225" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C225" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D225" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F225" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>518</v>
       </c>
       <c r="B226" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C226" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D226" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F226" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B227" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C227" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D227" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F227" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>520</v>
       </c>
@@ -8564,16 +9003,16 @@
         <v>261</v>
       </c>
       <c r="C228" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D228" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F228" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>521</v>
       </c>
@@ -8581,16 +9020,16 @@
         <v>160</v>
       </c>
       <c r="C229" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D229" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F229" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>522</v>
       </c>
@@ -8598,50 +9037,53 @@
         <v>260</v>
       </c>
       <c r="C230" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D230" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F230" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1310</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>523</v>
       </c>
       <c r="B231" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C231" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D231" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F231" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>524</v>
       </c>
       <c r="B232" t="s">
-        <v>623</v>
+        <v>1312</v>
       </c>
       <c r="C232" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D232" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F232" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>525</v>
       </c>
@@ -8649,118 +9091,121 @@
         <v>170</v>
       </c>
       <c r="C233" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D233" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F233" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>526</v>
       </c>
       <c r="B234" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C234" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D234" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F234" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>527</v>
       </c>
       <c r="B235" t="s">
-        <v>627</v>
+        <v>1316</v>
       </c>
       <c r="C235" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D235" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F235" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>528</v>
       </c>
       <c r="B236" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C236" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D236" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F236" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>529</v>
       </c>
       <c r="B237" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C237" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D237" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F237" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B238" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C238" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D238" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F238" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1319</v>
+      </c>
+      <c r="G238" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>531</v>
       </c>
       <c r="B239" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D239" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F239" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>532</v>
       </c>
@@ -8768,13 +9213,13 @@
         <v>212</v>
       </c>
       <c r="C240" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D240" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F240" t="s">
-        <v>1052</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -8782,16 +9227,16 @@
         <v>533</v>
       </c>
       <c r="B241" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C241" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D241" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F241" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -8802,13 +9247,13 @@
         <v>223</v>
       </c>
       <c r="C242" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D242" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F242" t="s">
-        <v>1054</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -8816,16 +9261,16 @@
         <v>535</v>
       </c>
       <c r="B243" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C243" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D243" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F243" t="s">
-        <v>1055</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -8836,13 +9281,13 @@
         <v>228</v>
       </c>
       <c r="C244" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D244" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F244" t="s">
-        <v>1056</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -8850,16 +9295,16 @@
         <v>537</v>
       </c>
       <c r="B245" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C245" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D245" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F245" t="s">
-        <v>1057</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -8870,13 +9315,13 @@
         <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D246" t="s">
         <v>97</v>
       </c>
       <c r="F246" t="s">
-        <v>1058</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -8884,16 +9329,16 @@
         <v>539</v>
       </c>
       <c r="B247" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C247" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D247" t="s">
         <v>97</v>
       </c>
       <c r="F247" t="s">
-        <v>1059</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -8904,13 +9349,13 @@
         <v>589</v>
       </c>
       <c r="C248" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D248" t="s">
         <v>97</v>
       </c>
       <c r="F248" t="s">
-        <v>1060</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -8921,13 +9366,13 @@
         <v>590</v>
       </c>
       <c r="C249" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D249" t="s">
         <v>97</v>
       </c>
       <c r="F249" t="s">
-        <v>1061</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -8938,13 +9383,13 @@
         <v>591</v>
       </c>
       <c r="C250" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D250" t="s">
         <v>97</v>
       </c>
       <c r="F250" t="s">
-        <v>1062</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -8955,13 +9400,13 @@
         <v>592</v>
       </c>
       <c r="C251" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D251" t="s">
         <v>97</v>
       </c>
       <c r="F251" t="s">
-        <v>1063</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -8972,13 +9417,13 @@
         <v>593</v>
       </c>
       <c r="C252" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D252" t="s">
         <v>97</v>
       </c>
       <c r="F252" t="s">
-        <v>1064</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -8989,13 +9434,13 @@
         <v>594</v>
       </c>
       <c r="C253" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D253" t="s">
         <v>97</v>
       </c>
       <c r="F253" t="s">
-        <v>1065</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -9003,16 +9448,16 @@
         <v>546</v>
       </c>
       <c r="B254" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C254" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D254" t="s">
         <v>97</v>
       </c>
       <c r="F254" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -9023,13 +9468,13 @@
         <v>610</v>
       </c>
       <c r="C255" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D255" t="s">
         <v>97</v>
       </c>
       <c r="F255" t="s">
-        <v>1067</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -9037,16 +9482,16 @@
         <v>548</v>
       </c>
       <c r="B256" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C256" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D256" t="s">
         <v>97</v>
       </c>
       <c r="F256" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -9054,16 +9499,16 @@
         <v>549</v>
       </c>
       <c r="B257" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C257" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D257" t="s">
         <v>97</v>
       </c>
       <c r="F257" t="s">
-        <v>1069</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -9071,16 +9516,16 @@
         <v>550</v>
       </c>
       <c r="B258" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C258" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D258" t="s">
         <v>97</v>
       </c>
       <c r="F258" t="s">
-        <v>1070</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -9088,16 +9533,16 @@
         <v>551</v>
       </c>
       <c r="B259" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C259" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D259" t="s">
         <v>97</v>
       </c>
       <c r="F259" t="s">
-        <v>1071</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -9108,13 +9553,13 @@
         <v>289</v>
       </c>
       <c r="C260" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D260" t="s">
         <v>97</v>
       </c>
       <c r="F260" t="s">
-        <v>1072</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -9122,16 +9567,16 @@
         <v>553</v>
       </c>
       <c r="B261" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C261" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D261" t="s">
         <v>97</v>
       </c>
       <c r="F261" t="s">
-        <v>1073</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -9139,16 +9584,16 @@
         <v>554</v>
       </c>
       <c r="B262" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C262" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D262" t="s">
         <v>97</v>
       </c>
       <c r="F262" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -9156,16 +9601,16 @@
         <v>555</v>
       </c>
       <c r="B263" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C263" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D263" t="s">
         <v>97</v>
       </c>
       <c r="F263" t="s">
-        <v>1075</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -9173,16 +9618,16 @@
         <v>556</v>
       </c>
       <c r="B264" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C264" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D264" t="s">
         <v>97</v>
       </c>
       <c r="F264" t="s">
-        <v>1076</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -9190,16 +9635,16 @@
         <v>557</v>
       </c>
       <c r="B265" t="s">
-        <v>626</v>
+        <v>1342</v>
       </c>
       <c r="C265" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D265" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F265" t="s">
-        <v>1077</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -9207,16 +9652,16 @@
         <v>558</v>
       </c>
       <c r="B266" t="s">
-        <v>624</v>
+        <v>1343</v>
       </c>
       <c r="C266" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D266" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F266" t="s">
-        <v>1078</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -9227,13 +9672,13 @@
         <v>181</v>
       </c>
       <c r="C267" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D267" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F267" t="s">
-        <v>1079</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -9244,13 +9689,13 @@
         <v>182</v>
       </c>
       <c r="C268" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D268" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F268" t="s">
-        <v>1080</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
@@ -9258,16 +9703,16 @@
         <v>561</v>
       </c>
       <c r="B269" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C269" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D269" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F269" t="s">
-        <v>677</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -9275,16 +9720,16 @@
         <v>562</v>
       </c>
       <c r="B270" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C270" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D270" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F270" t="s">
-        <v>660</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -9292,16 +9737,16 @@
         <v>563</v>
       </c>
       <c r="B271" t="s">
-        <v>613</v>
+        <v>1348</v>
       </c>
       <c r="C271" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D271" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F271" t="s">
-        <v>1081</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -9309,16 +9754,16 @@
         <v>564</v>
       </c>
       <c r="B272" t="s">
-        <v>612</v>
+        <v>1351</v>
       </c>
       <c r="C272" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D272" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F272" t="s">
-        <v>612</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -9329,13 +9774,13 @@
         <v>611</v>
       </c>
       <c r="C273" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D273" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F273" t="s">
-        <v>611</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -9343,16 +9788,16 @@
         <v>566</v>
       </c>
       <c r="B274" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C274" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D274" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F274" t="s">
-        <v>1082</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -9363,13 +9808,13 @@
         <v>39</v>
       </c>
       <c r="C275" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D275" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F275" t="s">
-        <v>1083</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -9380,13 +9825,13 @@
         <v>40</v>
       </c>
       <c r="C276" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D276" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F276" t="s">
-        <v>1084</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
@@ -9397,13 +9842,13 @@
         <v>166</v>
       </c>
       <c r="C277" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D277" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F277" t="s">
-        <v>1085</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -9411,16 +9856,16 @@
         <v>570</v>
       </c>
       <c r="B278" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C278" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D278" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F278" t="s">
-        <v>1086</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -9431,13 +9876,13 @@
         <v>196</v>
       </c>
       <c r="C279" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D279" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F279" t="s">
-        <v>1087</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -9445,16 +9890,16 @@
         <v>572</v>
       </c>
       <c r="B280" t="s">
-        <v>214</v>
+        <v>1360</v>
       </c>
       <c r="C280" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D280" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F280" t="s">
-        <v>1088</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -9462,16 +9907,16 @@
         <v>573</v>
       </c>
       <c r="B281" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C281" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D281" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F281" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -9479,16 +9924,16 @@
         <v>574</v>
       </c>
       <c r="B282" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C282" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D282" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F282" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -9496,16 +9941,16 @@
         <v>575</v>
       </c>
       <c r="B283" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C283" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D283" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F283" t="s">
-        <v>1091</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -9513,16 +9958,16 @@
         <v>576</v>
       </c>
       <c r="B284" t="s">
-        <v>653</v>
+        <v>1364</v>
       </c>
       <c r="C284" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D284" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F284" t="s">
-        <v>1092</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -9533,13 +9978,13 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D285" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F285" t="s">
-        <v>1093</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -9547,16 +9992,16 @@
         <v>578</v>
       </c>
       <c r="B286" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C286" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D286" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F286" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -9564,19 +10009,19 @@
         <v>90001</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C287" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F287" t="s">
-        <v>1095</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -9584,19 +10029,19 @@
         <v>90002</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C288" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F288" t="s">
-        <v>1096</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -9604,19 +10049,19 @@
         <v>90003</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C289" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F289" t="s">
-        <v>1097</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -9624,19 +10069,19 @@
         <v>90004</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C290" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F290" t="s">
-        <v>1098</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -9644,19 +10089,19 @@
         <v>90005</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C291" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F291" t="s">
-        <v>1099</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -9664,19 +10109,19 @@
         <v>90006</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C292" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F292" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -9684,19 +10129,19 @@
         <v>90007</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C293" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F293" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -9704,19 +10149,19 @@
         <v>90008</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C294" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F294" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
@@ -9724,19 +10169,19 @@
         <v>90009</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C295" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F295" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
@@ -9744,19 +10189,19 @@
         <v>90010</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C296" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F296" t="s">
-        <v>1104</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
@@ -9764,19 +10209,19 @@
         <v>90011</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C297" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F297" t="s">
-        <v>1105</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="38.5" x14ac:dyDescent="0.35">
@@ -9784,19 +10229,19 @@
         <v>90012</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C298" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F298" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9804,19 +10249,19 @@
         <v>90013</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C299" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F299" t="s">
-        <v>867</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9824,19 +10269,19 @@
         <v>90014</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C300" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F300" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9844,19 +10289,19 @@
         <v>90015</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C301" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F301" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -9864,19 +10309,19 @@
         <v>90016</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C302" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F302" t="s">
-        <v>864</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9884,19 +10329,19 @@
         <v>90017</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C303" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F303" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9904,19 +10349,19 @@
         <v>90019</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C304" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E304" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F304" t="s">
         <v>806</v>
-      </c>
-      <c r="F304" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
@@ -9924,19 +10369,19 @@
         <v>90020</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C305" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F305" t="s">
-        <v>1108</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9944,19 +10389,19 @@
         <v>90021</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C306" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F306" t="s">
-        <v>1109</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9964,19 +10409,19 @@
         <v>90022</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C307" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F307" t="s">
-        <v>1110</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -9984,19 +10429,19 @@
         <v>90023</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C308" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F308" t="s">
-        <v>1111</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="51" x14ac:dyDescent="0.35">
@@ -10004,19 +10449,19 @@
         <v>90024</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C309" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F309" t="s">
-        <v>1112</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -10024,19 +10469,19 @@
         <v>90025</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C310" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F310" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
@@ -10044,19 +10489,19 @@
         <v>90026</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C311" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F311" t="s">
-        <v>1113</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
@@ -10064,19 +10509,19 @@
         <v>90029</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C312" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F312" t="s">
-        <v>1114</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -10084,19 +10529,19 @@
         <v>90030</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C313" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F313" t="s">
-        <v>1115</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
@@ -10104,19 +10549,19 @@
         <v>90031</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C314" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F314" t="s">
-        <v>1116</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -10124,19 +10569,19 @@
         <v>90032</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C315" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D315" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E315" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="E315" s="4" t="s">
-        <v>818</v>
-      </c>
       <c r="F315" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
@@ -10144,19 +10589,19 @@
         <v>90033</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C316" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F316" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
@@ -10164,19 +10609,19 @@
         <v>90034</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C317" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F317" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -10184,19 +10629,19 @@
         <v>90035</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C318" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F318" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
@@ -10204,19 +10649,19 @@
         <v>90036</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C319" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F319" t="s">
-        <v>1120</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -10224,19 +10669,19 @@
         <v>90037</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C320" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F320" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -10244,19 +10689,19 @@
         <v>90038</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C321" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F321" t="s">
-        <v>1122</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -10264,19 +10709,19 @@
         <v>90039</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C322" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F322" t="s">
-        <v>1123</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
@@ -10284,19 +10729,19 @@
         <v>90040</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C323" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F323" t="s">
-        <v>1124</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
@@ -10304,19 +10749,19 @@
         <v>90041</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C324" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F324" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
@@ -10324,19 +10769,19 @@
         <v>90042</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C325" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F325" t="s">
-        <v>1126</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -10344,19 +10789,19 @@
         <v>90043</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C326" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F326" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
@@ -10364,19 +10809,19 @@
         <v>90044</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C327" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F327" t="s">
-        <v>1128</v>
+        <v>843</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
@@ -10384,19 +10829,19 @@
         <v>90045</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C328" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F328" t="s">
-        <v>848</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
@@ -10404,19 +10849,19 @@
         <v>90046</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C329" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F329" t="s">
-        <v>847</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
@@ -10424,19 +10869,19 @@
         <v>90047</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C330" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F330" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
@@ -10444,19 +10889,19 @@
         <v>90048</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C331" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F331" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
@@ -10464,19 +10909,19 @@
         <v>90049</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C332" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F332" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
@@ -10484,19 +10929,19 @@
         <v>90050</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C333" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F333" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
@@ -10504,19 +10949,19 @@
         <v>90051</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C334" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F334" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -10524,19 +10969,19 @@
         <v>90052</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="C335" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F335" t="s">
-        <v>841</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -10544,19 +10989,19 @@
         <v>90053</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C336" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F336" t="s">
-        <v>840</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
@@ -10564,19 +11009,19 @@
         <v>90054</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C337" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F337" t="s">
-        <v>839</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
@@ -10584,19 +11029,19 @@
         <v>90055</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C338" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F338" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
@@ -10604,19 +11049,19 @@
         <v>90056</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C339" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F339" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -10624,19 +11069,19 @@
         <v>90057</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C340" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F340" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
@@ -10644,19 +11089,19 @@
         <v>90058</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C341" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F341" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
@@ -10664,19 +11109,19 @@
         <v>90059</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C342" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F342" t="s">
-        <v>1133</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
@@ -10684,19 +11129,19 @@
         <v>90060</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C343" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F343" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
@@ -10704,19 +11149,19 @@
         <v>90061</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C344" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F344" t="s">
-        <v>832</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
@@ -10724,19 +11169,19 @@
         <v>90062</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C345" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F345" t="s">
-        <v>1134</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
@@ -10744,19 +11189,19 @@
         <v>90063</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C346" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F346" t="s">
-        <v>830</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -10764,19 +11209,19 @@
         <v>90064</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C347" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F347" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="38.5" x14ac:dyDescent="0.35">
@@ -10784,39 +11229,39 @@
         <v>90065</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C348" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F348" t="s">
-        <v>827</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C349" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F349" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -10838,12 +11283,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -12368,12 +12813,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -12403,7 +12848,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -12418,17 +12863,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -12438,77 +12883,77 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
@@ -12518,42 +12963,42 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
@@ -12563,422 +13008,422 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
@@ -12988,12 +13433,12 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
@@ -13028,12 +13473,12 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
@@ -13043,7 +13488,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
@@ -13053,112 +13498,112 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
@@ -13173,72 +13618,72 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
@@ -13248,17 +13693,17 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
@@ -13268,32 +13713,32 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
@@ -13303,22 +13748,22 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
@@ -13328,12 +13773,12 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
@@ -13343,107 +13788,107 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
@@ -13453,12 +13898,12 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
@@ -13468,252 +13913,252 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
@@ -13728,382 +14173,382 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
